--- a/input/Dash_LCOE_ConfigurationII.xlsx
+++ b/input/Dash_LCOE_ConfigurationII.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58144271-0B81-42C9-B9E2-ACAA91C91F17}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3C537-0B6A-46E1-B5B7-3C9BA8CAA1F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,21 +46,12 @@
     <t>{"index":"input_HiPowAR_opex_Eur_kW_yr","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_HiPowAR_opex_Eur_kW_yr</t>
-  </si>
-  <si>
     <t>{"index":"input_HiPowAR_opex_Eur_kW_yr_min","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_HiPowAR_opex_Eur_kW_yr_min</t>
-  </si>
-  <si>
     <t>{"index":"input_HiPowAR_opex_Eur_kW_yr_max","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_HiPowAR_opex_Eur_kW_yr_max</t>
-  </si>
-  <si>
     <t>{"index":"input_HiPowAR_eta_perc","type":"input"}.value</t>
   </si>
   <si>
@@ -100,21 +91,12 @@
     <t>{"index":"input_SOFC_opex_Eur_kW_yr","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_SOFC_opex_Eur_kW_yr</t>
-  </si>
-  <si>
     <t>{"index":"input_SOFC_opex_Eur_kW_yr_min","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_SOFC_opex_Eur_kW_yr_min</t>
-  </si>
-  <si>
     <t>{"index":"input_SOFC_opex_Eur_kW_yr_max","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_SOFC_opex_Eur_kW_yr_max</t>
-  </si>
-  <si>
     <t>{"index":"input_SOFC_eta_perc","type":"input"}.value</t>
   </si>
   <si>
@@ -190,21 +172,12 @@
     <t>{"index":"input_ICE_opex_Eur_kW_yr","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_ICE_opex_Eur_kW_yr</t>
-  </si>
-  <si>
     <t>{"index":"input_ICE_opex_Eur_kW_yr_min","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_ICE_opex_Eur_kW_yr_min</t>
-  </si>
-  <si>
     <t>{"index":"input_ICE_opex_Eur_kW_yr_max","type":"input"}.value</t>
   </si>
   <si>
-    <t>input_ICE_opex_Eur_kW_yr_max</t>
-  </si>
-  <si>
     <t>{"index":"input_ICE_eta_perc","type":"input"}.value</t>
   </si>
   <si>
@@ -281,6 +254,33 @@
   </si>
   <si>
     <t>1MW  base case, Ver. 09/22</t>
+  </si>
+  <si>
+    <t>input_SOFC_opex_Eur_kWh</t>
+  </si>
+  <si>
+    <t>input_SOFC_opex_Eur_kWh_max</t>
+  </si>
+  <si>
+    <t>input_HiPowAR_opex_Eur_kWh</t>
+  </si>
+  <si>
+    <t>input_HiPowAR_opex_Eur_kWh_min</t>
+  </si>
+  <si>
+    <t>input_HiPowAR_opex_Eur_kWh_max</t>
+  </si>
+  <si>
+    <t>input_SOFC_opex_Eur_kWh_min</t>
+  </si>
+  <si>
+    <t>input_ICE_opex_Eur_kWh</t>
+  </si>
+  <si>
+    <t>input_ICE_opex_Eur_kWh_min</t>
+  </si>
+  <si>
+    <t>input_ICE_opex_Eur_kWh_max</t>
   </si>
 </sst>
 </file>
@@ -654,9 +654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
         <v>600</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">0.9*C3</f>
+        <f t="shared" ref="D3:D7" si="0">0.9*C3</f>
         <v>540</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>37</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <f>1.1*D11</f>
@@ -827,13 +827,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C14" si="1">1.1*D12</f>
+        <f t="shared" ref="C12:C13" si="1">1.1*D12</f>
         <v>550</v>
       </c>
       <c r="D12">
@@ -842,10 +842,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -857,10 +857,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <f>D14*1.1</f>
@@ -872,10 +872,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:C16" si="2">D15*1.1</f>
@@ -887,10 +887,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -902,10 +902,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>48</v>
@@ -930,10 +930,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>52</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>30000</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>25000</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>40000</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <f>1.25*D26</f>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <f>1.25*D27</f>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <f>1.25*D28</f>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>110</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>37</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>42</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>15</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>6000</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <v>4500</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C43">
         <v>7000</v>
